--- a/SevenRMartMavenProject/src/test/resources/TestData.xlsx
+++ b/SevenRMartMavenProject/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul George\eclipse-workspace\SevenRMartMavenProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul George\git\SevenRMartProject\SevenRMartMavenProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7DA051-638D-48AF-A4D0-B652D4773F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D59826-88BF-4029-A6C4-8124873AEF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2184" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{B892F111-A1DA-4EDD-A812-C330E21065E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{B892F111-A1DA-4EDD-A812-C330E21065E0}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -96,28 +96,28 @@
     <t>admin.admin@gmail.com</t>
   </si>
   <si>
-    <t>Admin Villa 01, Us</t>
-  </si>
-  <si>
     <t>2 days</t>
   </si>
   <si>
     <t>RS.40</t>
   </si>
   <si>
-    <t>91-23456789</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
-    <t>NatureTreeNew</t>
-  </si>
-  <si>
-    <t>TestNew1234u</t>
-  </si>
-  <si>
-    <t>Testing manage news1</t>
+    <t>Testing manage news12</t>
+  </si>
+  <si>
+    <t>TestNew1nbjb4u</t>
+  </si>
+  <si>
+    <t>91-23456589</t>
+  </si>
+  <si>
+    <t>Admin Villa 01, Usa</t>
+  </si>
+  <si>
+    <t>NatureTreeEnv</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783234B4-FDF0-434C-8E91-722214377C22}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -569,7 +569,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +603,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -622,7 +622,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,19 +653,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7295719-0352-4590-9811-11D203DA1599}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -691,12 +691,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
